--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a50_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a50_reformulation.xlsx
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-214.8660652077207</v>
+        <v>-105.20922885539122</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0.09054680418354322</v>
       </c>
       <c r="D2">
-        <v>3.535129753</v>
+        <v>129.891672026</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-208.96556509060866</v>
+        <v>-100.25578112906734</v>
       </c>
       <c r="C3">
-        <v>1.3601144962839496e-14</v>
+        <v>0.06162279836591759</v>
       </c>
       <c r="D3">
-        <v>0.721251968</v>
+        <v>138.498554965</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-220.19797514944963</v>
+        <v>-103.67140169613268</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0.02259346017021363</v>
       </c>
       <c r="D4">
-        <v>0.699056489</v>
+        <v>226.030132661</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-222.8214373416837</v>
+        <v>-103.09145033800306</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0.09806946180741519</v>
       </c>
       <c r="D5">
-        <v>0.667351929</v>
+        <v>72.251829062</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-214.98729876470497</v>
+        <v>-102.05315995415073</v>
       </c>
       <c r="C6">
-        <v>2.644036144804742e-14</v>
+        <v>0.09107443008400061</v>
       </c>
       <c r="D6">
-        <v>0.802870359</v>
+        <v>73.510411201</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-215.90768387010934</v>
+        <v>-102.01057739411644</v>
       </c>
       <c r="C7">
-        <v>1.3163824890775738e-14</v>
+        <v>0.0957130934643146</v>
       </c>
       <c r="D7">
-        <v>0.795099339</v>
+        <v>130.960530718</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-205.70438735399554</v>
+        <v>-97.44343274822958</v>
       </c>
       <c r="C8">
-        <v>1.3816773572981421e-14</v>
+        <v>0.006862235569463699</v>
       </c>
       <c r="D8">
-        <v>0.722835448</v>
+        <v>11.926138511</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-214.18677486528318</v>
+        <v>-102.53029754612697</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0.09900204050256638</v>
       </c>
       <c r="D9">
-        <v>0.670134589</v>
+        <v>134.412641328</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-218.97917836027113</v>
+        <v>-102.29121992425158</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0.06533247987843727</v>
       </c>
       <c r="D10">
-        <v>0.80603721</v>
+        <v>50.896578923</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-208.42363263884084</v>
+        <v>-99.01915304554905</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0.08516894509857384</v>
       </c>
       <c r="D11">
-        <v>0.858100774</v>
+        <v>118.647207056</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
